--- a/실무_엑셀_예제_파일/Chapter05/05-011.xlsx
+++ b/실무_엑셀_예제_파일/Chapter05/05-011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csson\Documents\00. 진행\엑셀\예제 파일\Chapter05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA68F9B-F183-4E02-A401-570792E9542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E2D149-1CA6-4C4B-B1AD-1D601AF9CD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="495" windowWidth="22935" windowHeight="13515" activeTab="1" xr2:uid="{D3AFBC96-0D8A-4B79-B5D5-C9AB1BC56F2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D3AFBC96-0D8A-4B79-B5D5-C9AB1BC56F2A}"/>
   </bookViews>
   <sheets>
     <sheet name="리마트매출현황" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">리마트매출현황!$A$1:$J$64</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">추출시트!$A$1:$E$3</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">추출시트!$G$1:$J$1</definedName>
     <definedName name="원본데이터">리마트매출현황!$A$1:$J$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="198">
   <si>
     <t>FUR-BO-10001798</t>
   </si>
@@ -822,7 +824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,16 +834,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -865,9 +861,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -886,13 +879,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1276,27 +1269,27 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="9" width="11.5" style="7" customWidth="1"/>
+    <col min="7" max="9" width="11.5" style="5" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="3" customWidth="1"/>
     <col min="12" max="15" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>185</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1308,20 +1301,20 @@
       <c r="F1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>133</v>
       </c>
@@ -1331,30 +1324,30 @@
       <c r="C2" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>50</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>24000</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>720</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <f t="shared" ref="J2:J3" si="0">I2/H2</f>
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>145</v>
       </c>
@@ -1364,30 +1357,30 @@
       <c r="C3" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>45</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>61100</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>12220</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
@@ -1397,30 +1390,30 @@
       <c r="C4" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>40</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>3391800</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>440930</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <f t="shared" ref="J4:J35" si="1">I4/H4</f>
         <v>0.1299988206851819</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>132</v>
       </c>
@@ -1430,30 +1423,30 @@
       <c r="C5" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>10</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>288200</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>34580</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <f t="shared" si="1"/>
         <v>0.11998612074947952</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>155</v>
       </c>
@@ -1463,30 +1456,30 @@
       <c r="C6" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>85</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>82700</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>9100</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <f t="shared" si="1"/>
         <v>0.11003627569528417</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>133</v>
       </c>
@@ -1496,30 +1489,30 @@
       <c r="C7" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>75</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>16100</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>2090</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <f t="shared" si="1"/>
         <v>0.1298136645962733</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>157</v>
       </c>
@@ -1529,30 +1522,30 @@
       <c r="C8" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>40</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>1132900</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>215250</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <f t="shared" si="1"/>
         <v>0.18999911730955954</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>134</v>
       </c>
@@ -1562,30 +1555,30 @@
       <c r="C9" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>85</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>42000</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>7560</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>133</v>
       </c>
@@ -1595,30 +1588,30 @@
       <c r="C10" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>55</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>9400</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>1130</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <f t="shared" si="1"/>
         <v>0.1202127659574468</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>151</v>
       </c>
@@ -1628,30 +1621,30 @@
       <c r="C11" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>60</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>124700</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>7480</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <f t="shared" si="1"/>
         <v>5.9983961507618283E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>139</v>
       </c>
@@ -1661,30 +1654,30 @@
       <c r="C12" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>60</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>210000</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>25200</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="7">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>137</v>
       </c>
@@ -1694,30 +1687,30 @@
       <c r="C13" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>35</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>99000</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>14850</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="7">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>150</v>
       </c>
@@ -1727,30 +1720,30 @@
       <c r="C14" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>95</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>1207300</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>120730</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>134</v>
       </c>
@@ -1760,30 +1753,30 @@
       <c r="C15" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>30</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>32400</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>5510</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="7">
         <f t="shared" si="1"/>
         <v>0.17006172839506173</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>134</v>
       </c>
@@ -1793,30 +1786,30 @@
       <c r="C16" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>35</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>1053300</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>42130</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="7">
         <f t="shared" si="1"/>
         <v>3.9998101205734361E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>139</v>
       </c>
@@ -1826,30 +1819,30 @@
       <c r="C17" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>100</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>16800</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>2690</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="7">
         <f t="shared" si="1"/>
         <v>0.16011904761904761</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>138</v>
       </c>
@@ -1859,30 +1852,30 @@
       <c r="C18" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>100</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>997900</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>159660</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="7">
         <f t="shared" si="1"/>
         <v>0.15999599158232289</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>140</v>
       </c>
@@ -1892,30 +1885,30 @@
       <c r="C19" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>25</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>233300</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>11670</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="7">
         <f t="shared" si="1"/>
         <v>5.0021431633090439E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>137</v>
       </c>
@@ -1925,30 +1918,30 @@
       <c r="C20" t="s">
         <v>175</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>25</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>8000</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>1440</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="7">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>133</v>
       </c>
@@ -1958,30 +1951,30 @@
       <c r="C21" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>15</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>805100</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>136870</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="7">
         <f t="shared" si="1"/>
         <v>0.17000372624518692</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>144</v>
       </c>
@@ -1991,30 +1984,30 @@
       <c r="C22" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>65</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>732500</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>80580</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="7">
         <f t="shared" si="1"/>
         <v>0.11000682593856655</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>139</v>
       </c>
@@ -2024,30 +2017,30 @@
       <c r="C23" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>40</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>20400</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>2040</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="7">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>134</v>
       </c>
@@ -2057,30 +2050,30 @@
       <c r="C24" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>35</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>448800</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>53860</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="7">
         <f t="shared" si="1"/>
         <v>0.12000891265597148</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>153</v>
       </c>
@@ -2090,30 +2083,30 @@
       <c r="C25" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>5</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>408300</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>49000</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="7">
         <f t="shared" si="1"/>
         <v>0.12000979671809944</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>134</v>
       </c>
@@ -2123,30 +2116,30 @@
       <c r="C26" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>10</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>351400</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>17570</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="7">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>152</v>
       </c>
@@ -2156,30 +2149,30 @@
       <c r="C27" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>10</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>585600</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>58560</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="7">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>136</v>
       </c>
@@ -2189,30 +2182,30 @@
       <c r="C28" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>40</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>53700</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>10740</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="7">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>146</v>
       </c>
@@ -2222,30 +2215,30 @@
       <c r="C29" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>60</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>25000</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>5000</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="7">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>135</v>
       </c>
@@ -2255,30 +2248,30 @@
       <c r="C30" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>80</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>24600</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>1230</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="7">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>134</v>
       </c>
@@ -2288,30 +2281,30 @@
       <c r="C31" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>80</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>85700</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <v>5140</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="7">
         <f t="shared" si="1"/>
         <v>5.997666277712952E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>135</v>
       </c>
@@ -2321,30 +2314,30 @@
       <c r="C32" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>90</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>78500</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <v>7070</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="7">
         <f t="shared" si="1"/>
         <v>9.0063694267515926E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>144</v>
       </c>
@@ -2354,30 +2347,30 @@
       <c r="C33" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>95</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>234800</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <v>39920</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="7">
         <f t="shared" si="1"/>
         <v>0.17001703577512778</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>150</v>
       </c>
@@ -2387,30 +2380,30 @@
       <c r="C34" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>50</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <v>229400</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <v>29820</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="7">
         <f t="shared" si="1"/>
         <v>0.12999128160418483</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>140</v>
       </c>
@@ -2420,30 +2413,30 @@
       <c r="C35" t="s">
         <v>178</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>35</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <v>161900</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <v>32380</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="7">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>133</v>
       </c>
@@ -2453,30 +2446,30 @@
       <c r="C36" t="s">
         <v>180</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>35</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>21400</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <v>2780</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="7">
         <f t="shared" ref="J36:J63" si="2">I36/H36</f>
         <v>0.12990654205607477</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>133</v>
       </c>
@@ -2486,30 +2479,30 @@
       <c r="C37" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>15</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>1876800</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="5">
         <v>243980</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="7">
         <f t="shared" si="2"/>
         <v>0.12999786871270247</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>132</v>
       </c>
@@ -2519,30 +2512,30 @@
       <c r="C38" t="s">
         <v>177</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>100</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <v>126400</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="5">
         <v>17700</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="7">
         <f t="shared" si="2"/>
         <v>0.14003164556962025</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>153</v>
       </c>
@@ -2552,30 +2545,30 @@
       <c r="C39" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>30</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <v>105200</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="5">
         <v>10520</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="7">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>142</v>
       </c>
@@ -2585,30 +2578,30 @@
       <c r="C40" t="s">
         <v>178</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>45</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <v>1149100</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="5">
         <v>137890</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="7">
         <f t="shared" si="2"/>
         <v>0.1199982595074406</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>158</v>
       </c>
@@ -2618,30 +2611,30 @@
       <c r="C41" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>40</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>33000</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="5">
         <v>1320</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="7">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>134</v>
       </c>
@@ -2651,30 +2644,30 @@
       <c r="C42" t="s">
         <v>172</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>20</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <v>66400</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="5">
         <v>7300</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="7">
         <f t="shared" si="2"/>
         <v>0.10993975903614457</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>139</v>
       </c>
@@ -2684,30 +2677,30 @@
       <c r="C43" t="s">
         <v>179</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>60</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
         <v>49500</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="5">
         <v>8910</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="7">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>139</v>
       </c>
@@ -2717,30 +2710,30 @@
       <c r="C44" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <v>10</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="5">
         <v>50600</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="5">
         <v>6580</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="7">
         <f t="shared" si="2"/>
         <v>0.1300395256916996</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>143</v>
       </c>
@@ -2750,30 +2743,30 @@
       <c r="C45" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <v>100</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="5">
         <v>94900</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="5">
         <v>4750</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="7">
         <f t="shared" si="2"/>
         <v>5.0052687038988408E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>143</v>
       </c>
@@ -2783,30 +2776,30 @@
       <c r="C46" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <v>15</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="5">
         <v>35600</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="5">
         <v>1070</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="7">
         <f t="shared" si="2"/>
         <v>3.0056179775280897E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>141</v>
       </c>
@@ -2816,30 +2809,30 @@
       <c r="C47" t="s">
         <v>175</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <v>90</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="5">
         <v>99600</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="5">
         <v>4980</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="7">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>155</v>
       </c>
@@ -2849,30 +2842,30 @@
       <c r="C48" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>45</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <v>16000</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="5">
         <v>960</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="7">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>148</v>
       </c>
@@ -2882,30 +2875,30 @@
       <c r="C49" t="s">
         <v>174</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="5">
         <v>55</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <v>3600</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <v>140</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="7">
         <f t="shared" si="2"/>
         <v>3.888888888888889E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>159</v>
       </c>
@@ -2915,30 +2908,30 @@
       <c r="C50" t="s">
         <v>176</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>25</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="5">
         <v>53300</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="5">
         <v>2130</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="7">
         <f t="shared" si="2"/>
         <v>3.99624765478424E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>135</v>
       </c>
@@ -2948,30 +2941,30 @@
       <c r="C51" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <v>50</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="5">
         <v>10600</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="5">
         <v>420</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="7">
         <f t="shared" si="2"/>
         <v>3.962264150943396E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>140</v>
       </c>
@@ -2981,30 +2974,30 @@
       <c r="C52" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>100</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="5">
         <v>1002600</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="5">
         <v>190490</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="7">
         <f t="shared" si="2"/>
         <v>0.18999601037303013</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>135</v>
       </c>
@@ -3014,30 +3007,30 @@
       <c r="C53" t="s">
         <v>184</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="5">
         <v>95</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="5">
         <v>136600</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="5">
         <v>24590</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="7">
         <f t="shared" si="2"/>
         <v>0.18001464128843339</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>145</v>
       </c>
@@ -3047,30 +3040,30 @@
       <c r="C54" t="s">
         <v>183</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="5">
         <v>40</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="5">
         <v>12800</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="5">
         <v>1660</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="7">
         <f t="shared" si="2"/>
         <v>0.12968750000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>142</v>
       </c>
@@ -3080,30 +3073,30 @@
       <c r="C55" t="s">
         <v>181</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="5">
         <v>10</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="5">
         <v>75700</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="5">
         <v>9080</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55" s="7">
         <f t="shared" si="2"/>
         <v>0.11994715984147952</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>149</v>
       </c>
@@ -3113,30 +3106,30 @@
       <c r="C56" t="s">
         <v>182</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="5">
         <v>10</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="5">
         <v>7500</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="5">
         <v>1350</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J56" s="7">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>140</v>
       </c>
@@ -3146,30 +3139,30 @@
       <c r="C57" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="5">
         <v>85</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="5">
         <v>233200</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="5">
         <v>16320</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="7">
         <f t="shared" si="2"/>
         <v>6.9982847341337903E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>154</v>
       </c>
@@ -3179,30 +3172,30 @@
       <c r="C58" t="s">
         <v>184</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="5">
         <v>15</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="5">
         <v>19200</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="5">
         <v>3650</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58" s="7">
         <f t="shared" si="2"/>
         <v>0.19010416666666666</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>156</v>
       </c>
@@ -3212,30 +3205,30 @@
       <c r="C59" t="s">
         <v>165</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="5">
         <v>25</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="5">
         <v>6800</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="5">
         <v>200</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J59" s="7">
         <f t="shared" si="2"/>
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>139</v>
       </c>
@@ -3245,30 +3238,30 @@
       <c r="C60" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="5">
         <v>40</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="5">
         <v>15400</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="5">
         <v>460</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J60" s="7">
         <f t="shared" si="2"/>
         <v>2.987012987012987E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>139</v>
       </c>
@@ -3278,30 +3271,30 @@
       <c r="C61" t="s">
         <v>164</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="5">
         <v>35</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="5">
         <v>17300</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="5">
         <v>1560</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J61" s="7">
         <f t="shared" si="2"/>
         <v>9.0173410404624274E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>141</v>
       </c>
@@ -3311,30 +3304,30 @@
       <c r="C62" t="s">
         <v>171</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="5">
         <v>90</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62" s="5">
         <v>17100</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="5">
         <v>3080</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="7">
         <f t="shared" si="2"/>
         <v>0.18011695906432748</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>133</v>
       </c>
@@ -3344,30 +3337,30 @@
       <c r="C63" t="s">
         <v>183</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="5">
         <v>20</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="5">
         <v>1800</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="5">
         <v>70</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J63" s="7">
         <f t="shared" si="2"/>
         <v>3.888888888888889E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>143</v>
       </c>
@@ -3377,31 +3370,31 @@
       <c r="C64" t="s">
         <v>180</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="5">
         <v>55</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="5">
         <v>2800</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="5">
         <v>170</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J64" s="7">
         <f t="shared" ref="J64" si="3">I64/H64</f>
         <v>6.0714285714285714E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="21" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A65" s="18" t="s">
         <v>188</v>
       </c>
       <c r="B65" s="3">
@@ -3410,31 +3403,31 @@
       <c r="C65" t="s">
         <v>190</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="5">
         <v>42</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="5">
         <v>2500</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="5">
         <v>230</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J65" s="7">
         <f>I65/H65</f>
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A66" s="18" t="s">
         <v>189</v>
       </c>
       <c r="B66" s="3">
@@ -3443,25 +3436,25 @@
       <c r="C66" t="s">
         <v>191</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="5">
         <v>15</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66" s="5">
         <v>35600</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="5">
         <v>1070</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J66" s="7">
         <f>I66/H66</f>
         <v>3.0056179775280897E-2</v>
       </c>
@@ -3478,34 +3471,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C84285-BB3A-411C-8EAD-24D46DABE8E8}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="5" width="11.5" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="20.875" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>185</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>163</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -3514,27 +3509,163 @@
       <c r="H1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>185</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="3">
+        <v>42678</v>
+      </c>
+      <c r="I2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>195</v>
       </c>
       <c r="C3" t="s">
         <v>197</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="3">
+        <v>42767</v>
+      </c>
+      <c r="I3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="3">
+        <v>43097</v>
+      </c>
+      <c r="I4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="3">
+        <v>43131</v>
+      </c>
+      <c r="I5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="3">
+        <v>42640</v>
+      </c>
+      <c r="I6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="3">
+        <v>43178</v>
+      </c>
+      <c r="I7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="3">
+        <v>43659</v>
+      </c>
+      <c r="I8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="3">
+        <v>43803</v>
+      </c>
+      <c r="I9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="3">
+        <v>43808</v>
+      </c>
+      <c r="I10" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="3">
+        <v>43950</v>
+      </c>
+      <c r="I11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3553,117 +3684,115 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+    <row r="1" spans="2:4" ht="9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="2:4" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="2:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="2:4" ht="8.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="16"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="2:4" ht="45.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-    </row>
-    <row r="11" spans="2:4" ht="5.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="20" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="2:4" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="11"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="11"/>
+      <c r="C12" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="20" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="11"/>
+      <c r="C13" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="20" t="s">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="11"/>
+      <c r="C14" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="20" t="s">
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="11"/>
+      <c r="C15" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="20" t="s">
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="11"/>
+      <c r="C16" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="20" t="s">
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="11"/>
+      <c r="C17" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="20" t="s">
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="11"/>
+      <c r="C18" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="20" t="s">
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="11"/>
+      <c r="C19" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="20" t="s">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="11"/>
+      <c r="C20" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="20" t="s">
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="11"/>
+      <c r="C21" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="20" t="s">
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="11"/>
+      <c r="C22" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="2:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="2:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3682,9 +3811,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="10" width="13.125" customWidth="1"/>
+    <col min="1" max="10" width="13.08203125" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
